--- a/Tim Gorbunov/Guitar pedal/v0.5/Materials Bought.xlsx
+++ b/Tim Gorbunov/Guitar pedal/v0.5/Materials Bought.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d9c95dff6fb83323/Documents/GitHub/Programs---Sketches/Tim Gorbunov/Guitar pedal/v0.5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\OneDrive\Documents\GitHub\Programs---Sketches\Tim Gorbunov\Guitar pedal\v0.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1" calcCompleted="0" calcId="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Item Name</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>eBay</t>
+  </si>
+  <si>
+    <t>OSH Park</t>
   </si>
 </sst>
 </file>
@@ -395,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="B2">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -502,6 +505,17 @@
       </c>
       <c r="D7" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7.5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -510,7 +524,7 @@
       </c>
       <c r="C10">
         <f>SUM(C2:C9)</f>
-        <v>22.62</v>
+        <v>38.07</v>
       </c>
     </row>
   </sheetData>
